--- a/outputs-HGR-r202-archive/o__Mycobacteriales.xlsx
+++ b/outputs-HGR-r202-archive/o__Mycobacteriales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008931044075365158</v>
+        <v>0.008212088394578987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9910689559246348</v>
+        <v>0.991787911605421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9910689559246348</v>
+        <v>0.991787911605421</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008212088394578987</v>
+        <v>0.008103101722961359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.991787911605421</v>
+        <v>0.9918968982770386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.991787911605421</v>
+        <v>0.9918968982770386</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -513,32 +513,6 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49046.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.008103101722961359</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9918968982770386</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9918968982770386</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>f__Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>f__Mycobacteriaceae</t>
         </is>
